--- a/biology/Médecine/Ischémie_aiguë_de_membre/Ischémie_aiguë_de_membre.xlsx
+++ b/biology/Médecine/Ischémie_aiguë_de_membre/Ischémie_aiguë_de_membre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Isch%C3%A9mie_aigu%C3%AB_de_membre</t>
+          <t>Ischémie_aiguë_de_membre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ischémie aiguë de membre est une pathologie d'un membre provoquée par l'occlusion brutale de l'axe artériel et ainsi, une urgence vasculaire à pronostic vital engagé (mortalité : 20 %).
 Elle survient le plus souvent après une thrombose sur une artère pathologique ou une embolie sur artère saine.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Isch%C3%A9mie_aigu%C3%AB_de_membre</t>
+          <t>Ischémie_aiguë_de_membre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Manifestations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le processus central de l'ischémie est la souffrance tissulaire induite par l'anoxie, les muscles et les tissus n'étant plus alimentés en oxygène.
 Les conséquences locales sont :
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Isch%C3%A9mie_aigu%C3%AB_de_membre</t>
+          <t>Ischémie_aiguë_de_membre</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Une hospitalisation est indispensable. Une anticoagulation est mise en route. Un traitement antalgique peut être nécessaire.
 Le traitement curatif repose sur la reperfusion rapide du membre atteint si cela est possible : embolectomie chirurgicale, pontage.
